--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>S.NO.</t>
   </si>
@@ -55,7 +55,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>lauren_july83@yopmail.com</t>
+    <t>lauren1200@yopmail.com</t>
   </si>
   <si>
     <t>Qwerty123@</t>
@@ -88,7 +88,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>kumari s wickeramasinghe</t>
+    <t>New Jersy</t>
+  </si>
+  <si>
+    <t>Paul C Lam</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -318,10 +321,10 @@
         <v>23</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>23</v>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9062AED6-5306-6A45-AE56-B4BD594F0371}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A80A4F-94FB-E945-BF9D-27E4290A1CAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19847@yopmail.com</t>
+    <t>lauren.weiniger.19848@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A80A4F-94FB-E945-BF9D-27E4290A1CAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48BA1D1-3810-FD4E-AF19-59F51CDAE00F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19848@yopmail.com</t>
+    <t>lauren.weiniger.19849@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48BA1D1-3810-FD4E-AF19-59F51CDAE00F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CECEACF-0DAD-944E-817B-624B2388C383}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19849@yopmail.com</t>
+    <t>lauren.weiniger.19853@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CECEACF-0DAD-944E-817B-624B2388C383}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F3815C-7F9C-D440-9E4C-F74F6604C9AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19853@yopmail.com</t>
+    <t>lauren.weiniger.19854@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F3815C-7F9C-D440-9E4C-F74F6604C9AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF47BF7-F7B0-F144-80A5-8CDF1EAC1E39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19854@yopmail.com</t>
+    <t>lauren.weiniger.19855@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF47BF7-F7B0-F144-80A5-8CDF1EAC1E39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C238F790-971B-0141-BAEA-5B6ADA762220}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19855@yopmail.com</t>
+    <t>lauren.weiniger.19856@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C238F790-971B-0141-BAEA-5B6ADA762220}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C958D70F-0EBD-FA4F-94E8-5C0A44236D50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19856@yopmail.com</t>
+    <t>lauren.weiniger.19857@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C958D70F-0EBD-FA4F-94E8-5C0A44236D50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A0DCF-AD08-F243-BCF2-34DE3280A403}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19857@yopmail.com</t>
+    <t>lauren.weiniger.19858@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A0DCF-AD08-F243-BCF2-34DE3280A403}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ADEBB9-C544-634A-B0A8-1D99BF646D6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19858@yopmail.com</t>
+    <t>lauren.weiniger.19859@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ADEBB9-C544-634A-B0A8-1D99BF646D6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD9BAC-E9BF-7041-B11F-C793C2CCC036}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19859@yopmail.com</t>
+    <t>lauren.weiniger.19860@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD9BAC-E9BF-7041-B11F-C793C2CCC036}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57569816-84CC-FD4F-B3DD-3F71060B49EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19860@yopmail.com</t>
+    <t>lauren.weiniger.19861@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57569816-84CC-FD4F-B3DD-3F71060B49EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78331243-2227-8F45-9C5B-C294F08BBA8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19861@yopmail.com</t>
+    <t>lauren.weiniger.19862@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78331243-2227-8F45-9C5B-C294F08BBA8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8E5CD7-1389-524B-B1C6-CDEEFD7C5261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19862@yopmail.com</t>
+    <t>lauren.weiniger.19863@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8E5CD7-1389-524B-B1C6-CDEEFD7C5261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF212EA7-54B8-C847-AFCB-67B50D806ADE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19863@yopmail.com</t>
+    <t>lauren.weiniger.19864@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF212EA7-54B8-C847-AFCB-67B50D806ADE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AE0DA-2530-2845-A3B7-8BA2A500B52F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19864@yopmail.com</t>
+    <t>lauren.weiniger.19865@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AE0DA-2530-2845-A3B7-8BA2A500B52F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1971E096-83A6-6449-82A8-4BAFF1DD8C15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19865@yopmail.com</t>
+    <t>lauren.weiniger.19866@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/ImportResultsTests.xlsx
+++ b/src/test/resources/testData/ImportResultsTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1971E096-83A6-6449-82A8-4BAFF1DD8C15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069EEBCA-02FD-1841-918B-84163C920901}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>IMPORTED BEFORE?</t>
   </si>
   <si>
-    <t>lauren.weiniger.19866@yopmail.com</t>
+    <t>lauren.weiniger.19867@yopmail.com</t>
   </si>
 </sst>
 </file>
